--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.208469355192</v>
+        <v>31.82219666666667</v>
       </c>
       <c r="H2">
-        <v>29.208469355192</v>
+        <v>95.46659</v>
       </c>
       <c r="I2">
-        <v>0.5468297592304869</v>
+        <v>0.5609422836697905</v>
       </c>
       <c r="J2">
-        <v>0.5468297592304869</v>
+        <v>0.5609422836697905</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.9242698968318</v>
+        <v>1.119044666666667</v>
       </c>
       <c r="N2">
-        <v>15.9242698968318</v>
+        <v>3.357134</v>
       </c>
       <c r="O2">
-        <v>0.8269682157744558</v>
+        <v>0.05243434414602349</v>
       </c>
       <c r="P2">
-        <v>0.8269682157744558</v>
+        <v>0.05243434414602349</v>
       </c>
       <c r="Q2">
-        <v>465.1235492854182</v>
+        <v>35.61045946145111</v>
       </c>
       <c r="R2">
-        <v>465.1235492854182</v>
+        <v>320.49413515306</v>
       </c>
       <c r="S2">
-        <v>0.452210830323211</v>
+        <v>0.02941264074799813</v>
       </c>
       <c r="T2">
-        <v>0.452210830323211</v>
+        <v>0.02941264074799813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.208469355192</v>
+        <v>31.82219666666667</v>
       </c>
       <c r="H3">
-        <v>29.208469355192</v>
+        <v>95.46659</v>
       </c>
       <c r="I3">
-        <v>0.5468297592304869</v>
+        <v>0.5609422836697905</v>
       </c>
       <c r="J3">
-        <v>0.5468297592304869</v>
+        <v>0.5609422836697905</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.33193559338613</v>
+        <v>15.93829766666667</v>
       </c>
       <c r="N3">
-        <v>3.33193559338613</v>
+        <v>47.814893</v>
       </c>
       <c r="O3">
-        <v>0.1730317842255443</v>
+        <v>0.7468103909070326</v>
       </c>
       <c r="P3">
-        <v>0.1730317842255443</v>
+        <v>0.7468103909070325</v>
       </c>
       <c r="Q3">
-        <v>97.32073867289226</v>
+        <v>507.1916428805412</v>
       </c>
       <c r="R3">
-        <v>97.32073867289226</v>
+        <v>4564.72478592487</v>
       </c>
       <c r="S3">
-        <v>0.09461892890727595</v>
+        <v>0.4189175261437198</v>
       </c>
       <c r="T3">
-        <v>0.09461892890727595</v>
+        <v>0.4189175261437197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.8639228057083</v>
+        <v>31.82219666666667</v>
       </c>
       <c r="H4">
-        <v>13.8639228057083</v>
+        <v>95.46659</v>
       </c>
       <c r="I4">
-        <v>0.2595550447249957</v>
+        <v>0.5609422836697905</v>
       </c>
       <c r="J4">
-        <v>0.2595550447249957</v>
+        <v>0.5609422836697905</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.9242698968318</v>
+        <v>4.284484</v>
       </c>
       <c r="N4">
-        <v>15.9242698968318</v>
+        <v>12.853452</v>
       </c>
       <c r="O4">
-        <v>0.8269682157744558</v>
+        <v>0.200755264946944</v>
       </c>
       <c r="P4">
-        <v>0.8269682157744558</v>
+        <v>0.200755264946944</v>
       </c>
       <c r="Q4">
-        <v>220.7728485869406</v>
+        <v>136.3416924631867</v>
       </c>
       <c r="R4">
-        <v>220.7728485869406</v>
+        <v>1227.07523216868</v>
       </c>
       <c r="S4">
-        <v>0.2146437722314888</v>
+        <v>0.1126121167780726</v>
       </c>
       <c r="T4">
-        <v>0.2146437722314888</v>
+        <v>0.1126121167780726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.8639228057083</v>
+        <v>14.52367433333333</v>
       </c>
       <c r="H5">
-        <v>13.8639228057083</v>
+        <v>43.571023</v>
       </c>
       <c r="I5">
-        <v>0.2595550447249957</v>
+        <v>0.256014477352223</v>
       </c>
       <c r="J5">
-        <v>0.2595550447249957</v>
+        <v>0.256014477352223</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.33193559338613</v>
+        <v>1.119044666666667</v>
       </c>
       <c r="N5">
-        <v>3.33193559338613</v>
+        <v>3.357134</v>
       </c>
       <c r="O5">
-        <v>0.1730317842255443</v>
+        <v>0.05243434414602349</v>
       </c>
       <c r="P5">
-        <v>0.1730317842255443</v>
+        <v>0.05243434414602349</v>
       </c>
       <c r="Q5">
-        <v>46.19369786029718</v>
+        <v>16.25264030312022</v>
       </c>
       <c r="R5">
-        <v>46.19369786029718</v>
+        <v>146.273762728082</v>
       </c>
       <c r="S5">
-        <v>0.04491127249350697</v>
+        <v>0.0134239512118508</v>
       </c>
       <c r="T5">
-        <v>0.04491127249350697</v>
+        <v>0.0134239512118508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3417991155491</v>
+        <v>14.52367433333333</v>
       </c>
       <c r="H6">
-        <v>10.3417991155491</v>
+        <v>43.571023</v>
       </c>
       <c r="I6">
-        <v>0.1936151960445174</v>
+        <v>0.256014477352223</v>
       </c>
       <c r="J6">
-        <v>0.1936151960445174</v>
+        <v>0.256014477352223</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.9242698968318</v>
+        <v>15.93829766666667</v>
       </c>
       <c r="N6">
-        <v>15.9242698968318</v>
+        <v>47.814893</v>
       </c>
       <c r="O6">
-        <v>0.8269682157744558</v>
+        <v>0.7468103909070326</v>
       </c>
       <c r="P6">
-        <v>0.8269682157744558</v>
+        <v>0.7468103909070325</v>
       </c>
       <c r="Q6">
-        <v>164.6856003348203</v>
+        <v>231.4826447383932</v>
       </c>
       <c r="R6">
-        <v>164.6856003348203</v>
+        <v>2083.343802645539</v>
       </c>
       <c r="S6">
-        <v>0.160113613219756</v>
+        <v>0.1911942719092734</v>
       </c>
       <c r="T6">
-        <v>0.160113613219756</v>
+        <v>0.1911942719092733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3417991155491</v>
+        <v>14.52367433333333</v>
       </c>
       <c r="H7">
-        <v>10.3417991155491</v>
+        <v>43.571023</v>
       </c>
       <c r="I7">
-        <v>0.1936151960445174</v>
+        <v>0.256014477352223</v>
       </c>
       <c r="J7">
-        <v>0.1936151960445174</v>
+        <v>0.256014477352223</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.33193559338613</v>
+        <v>4.284484</v>
       </c>
       <c r="N7">
-        <v>3.33193559338613</v>
+        <v>12.853452</v>
       </c>
       <c r="O7">
-        <v>0.1730317842255443</v>
+        <v>0.200755264946944</v>
       </c>
       <c r="P7">
-        <v>0.1730317842255443</v>
+        <v>0.200755264946944</v>
       </c>
       <c r="Q7">
-        <v>34.45820857274725</v>
+        <v>62.22645030237733</v>
       </c>
       <c r="R7">
-        <v>34.45820857274725</v>
+        <v>560.038052721396</v>
       </c>
       <c r="S7">
-        <v>0.03350158282476139</v>
+        <v>0.05139625423109893</v>
       </c>
       <c r="T7">
-        <v>0.03350158282476139</v>
+        <v>0.05139625423109893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.38402366666667</v>
+      </c>
+      <c r="H8">
+        <v>31.152071</v>
+      </c>
+      <c r="I8">
+        <v>0.1830432389779865</v>
+      </c>
+      <c r="J8">
+        <v>0.1830432389779865</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.119044666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.357134</v>
+      </c>
+      <c r="O8">
+        <v>0.05243434414602349</v>
+      </c>
+      <c r="P8">
+        <v>0.05243434414602349</v>
+      </c>
+      <c r="Q8">
+        <v>11.62018630272378</v>
+      </c>
+      <c r="R8">
+        <v>104.581676724514</v>
+      </c>
+      <c r="S8">
+        <v>0.009597752186174565</v>
+      </c>
+      <c r="T8">
+        <v>0.009597752186174563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.38402366666667</v>
+      </c>
+      <c r="H9">
+        <v>31.152071</v>
+      </c>
+      <c r="I9">
+        <v>0.1830432389779865</v>
+      </c>
+      <c r="J9">
+        <v>0.1830432389779865</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.93829766666667</v>
+      </c>
+      <c r="N9">
+        <v>47.814893</v>
+      </c>
+      <c r="O9">
+        <v>0.7468103909070326</v>
+      </c>
+      <c r="P9">
+        <v>0.7468103909070325</v>
+      </c>
+      <c r="Q9">
+        <v>165.5036601770448</v>
+      </c>
+      <c r="R9">
+        <v>1489.532941593403</v>
+      </c>
+      <c r="S9">
+        <v>0.1366985928540395</v>
+      </c>
+      <c r="T9">
+        <v>0.1366985928540394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.38402366666667</v>
+      </c>
+      <c r="H10">
+        <v>31.152071</v>
+      </c>
+      <c r="I10">
+        <v>0.1830432389779865</v>
+      </c>
+      <c r="J10">
+        <v>0.1830432389779865</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.284484</v>
+      </c>
+      <c r="N10">
+        <v>12.853452</v>
+      </c>
+      <c r="O10">
+        <v>0.200755264946944</v>
+      </c>
+      <c r="P10">
+        <v>0.200755264946944</v>
+      </c>
+      <c r="Q10">
+        <v>44.49018325545466</v>
+      </c>
+      <c r="R10">
+        <v>400.411649299092</v>
+      </c>
+      <c r="S10">
+        <v>0.03674689393777246</v>
+      </c>
+      <c r="T10">
+        <v>0.03674689393777246</v>
       </c>
     </row>
   </sheetData>
